--- a/biology/Zoologie/Dolomedes_fimbriatus/Dolomedes_fimbriatus.xlsx
+++ b/biology/Zoologie/Dolomedes_fimbriatus/Dolomedes_fimbriatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dolomedes fimbriatus, le Dolomède des marais ou Dolomède bordé, est une espèce d'araignées aranéomorphes de la famille des Pisauridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dolomedes fimbriatus, le Dolomède des marais ou Dolomède bordé, est une espèce d'araignées aranéomorphes de la famille des Pisauridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en zone paléarctique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en zone paléarctique.
 C'est une araignée assez répandue en France et en Europe mais elle se raréfie du fait de la disparition de son biotope : les marécages où l'eau reste en permanence.
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est très répandue en France, de nos jours rare à de nombreux autres endroits, elle vit exclusivement sur les rives d'eaux stagnantes ou à courant où l’écoulement est laminaire. On peut voir les araignées adulte généralement de mai à août[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est très répandue en France, de nos jours rare à de nombreux autres endroits, elle vit exclusivement sur les rives d'eaux stagnantes ou à courant où l’écoulement est laminaire. On peut voir les araignées adulte généralement de mai à août.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 9 à 15 mm et les femelles de 9 à 22 mm[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 9 à 15 mm et les femelles de 9 à 22 mm.
 Le corps sombre est brun avec une bande latérale jaunâtre.
 L'araignée peut s'immerger dans l'eau sans se noyer. Elle se nourrit d'insectes aquatiques, d'alevins, de petits batraciens.
 Les femelles pondent plus d'un millier d'œufs qu'elles répartissent dans deux (parfois plus) cocons verdâtres.
@@ -608,9 +626,11 @@
           <t>Aspect</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Avec son corps d'une longueur de 15 à 80 mm pâtes comprises,la femelle du dolomède est un peu plus grande que le mâle, qui ne dépasse pas 10 mm. La couleur de fond varie chez les deux sexes du brun-jaune au brun-noir, le corps porte sur les côtés des bandes longitudinales blanchâtres ou jaunâtres[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avec son corps d'une longueur de 15 à 80 mm pâtes comprises,la femelle du dolomède est un peu plus grande que le mâle, qui ne dépasse pas 10 mm. La couleur de fond varie chez les deux sexes du brun-jaune au brun-noir, le corps porte sur les côtés des bandes longitudinales blanchâtres ou jaunâtres.
 </t>
         </is>
       </c>
@@ -639,9 +659,11 @@
           <t>Mode de vie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Araignée-pêcheuse, elle reste normalement à proximité immédiate de l'eau. Elle est également capable de marcher sur l'eau, voire de plonger. Elle attrape principalement les insectes qui habitent les plantes des berges, elle peut aussi capturer des têtards, ou même de petits poissons. Vers la fin du printemps le mâle parade longuement en bougeant les pattes antérieures devant la femelle jusqu'à ce qu'elle accepte l’accouplement. Deux à trois semaines après l’accouplement, la femelle commence à tisser des cocons jusqu'à la quatrième semaine dans lesquels elle entoure les œufs. Elle porte les cocons avec elle pendant quelques semaines et les installe dans une toile pouponnière lorsque les jeunes araignées sont prêtes à éclore[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Araignée-pêcheuse, elle reste normalement à proximité immédiate de l'eau. Elle est également capable de marcher sur l'eau, voire de plonger. Elle attrape principalement les insectes qui habitent les plantes des berges, elle peut aussi capturer des têtards, ou même de petits poissons. Vers la fin du printemps le mâle parade longuement en bougeant les pattes antérieures devant la femelle jusqu'à ce qu'elle accepte l’accouplement. Deux à trois semaines après l’accouplement, la femelle commence à tisser des cocons jusqu'à la quatrième semaine dans lesquels elle entoure les œufs. Elle porte les cocons avec elle pendant quelques semaines et les installe dans une toile pouponnière lorsque les jeunes araignées sont prêtes à éclore.
 </t>
         </is>
       </c>
@@ -670,9 +692,11 @@
           <t>Développement</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les araignées enfants sont surveillées avec soin par leur mère durant leurs premières semaines de vie, elles n'atteignent leur maturité sexuelle qu’au bout de deux ans[2].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les araignées enfants sont surveillées avec soin par leur mère durant leurs premières semaines de vie, elles n'atteignent leur maturité sexuelle qu’au bout de deux ans.
 </t>
         </is>
       </c>
@@ -701,10 +725,12 @@
           <t>Capacité à marcher sur l'eau</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le dolomède ou araignée radeau possède la capacité de « marcher » sur l'eau (comme de nombreuses araignées). En effet, la résultante de la force de la cohésion de l'eau (l'ensemble des liaisons hydrogène établies entre les molécules permet cette cohésion) est supérieure à la force appliquée par l'araignée sur la surface de l'eau[4].
-Elle court ainsi sur l'eau, plonge pour la fuite ou la capture des proies, tout en restant attachée à la végétation semi-submergée (tapis flottants d’Hypericum elodes, petits hélophytes, sphaignes) par les pattes arrière[5].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le dolomède ou araignée radeau possède la capacité de « marcher » sur l'eau (comme de nombreuses araignées). En effet, la résultante de la force de la cohésion de l'eau (l'ensemble des liaisons hydrogène établies entre les molécules permet cette cohésion) est supérieure à la force appliquée par l'araignée sur la surface de l'eau.
+Elle court ainsi sur l'eau, plonge pour la fuite ou la capture des proies, tout en restant attachée à la végétation semi-submergée (tapis flottants d’Hypericum elodes, petits hélophytes, sphaignes) par les pattes arrière.
 </t>
         </is>
       </c>
@@ -733,7 +759,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Clerck, 1757 : Svenska spindlar, uti sina hufvud-slågter indelte samt under några och sextio särskildte arter beskrefne och med illuminerade figurer uplyste. Stockholmiae, p. 1-154.</t>
         </is>
